--- a/stock/data/하이브.xlsx
+++ b/stock/data/하이브.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G855"/>
+  <dimension ref="A1:G888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20110,10 +20110,769 @@
         <v>230000</v>
       </c>
       <c r="F855" t="n">
-        <v>231868</v>
+        <v>233449</v>
       </c>
       <c r="G855" t="n">
         <v>0.4366812227074235</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B856" t="n">
+        <v>233500</v>
+      </c>
+      <c r="C856" t="n">
+        <v>236000</v>
+      </c>
+      <c r="D856" t="n">
+        <v>223500</v>
+      </c>
+      <c r="E856" t="n">
+        <v>226500</v>
+      </c>
+      <c r="F856" t="n">
+        <v>249106</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-1.521739130434783</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B857" t="n">
+        <v>223500</v>
+      </c>
+      <c r="C857" t="n">
+        <v>226000</v>
+      </c>
+      <c r="D857" t="n">
+        <v>216000</v>
+      </c>
+      <c r="E857" t="n">
+        <v>222500</v>
+      </c>
+      <c r="F857" t="n">
+        <v>271762</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-1.766004415011037</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B858" t="n">
+        <v>220500</v>
+      </c>
+      <c r="C858" t="n">
+        <v>228500</v>
+      </c>
+      <c r="D858" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E858" t="n">
+        <v>224000</v>
+      </c>
+      <c r="F858" t="n">
+        <v>184075</v>
+      </c>
+      <c r="G858" t="n">
+        <v>0.6741573033707865</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B859" t="n">
+        <v>225000</v>
+      </c>
+      <c r="C859" t="n">
+        <v>225500</v>
+      </c>
+      <c r="D859" t="n">
+        <v>220500</v>
+      </c>
+      <c r="E859" t="n">
+        <v>221000</v>
+      </c>
+      <c r="F859" t="n">
+        <v>173764</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-1.339285714285714</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B860" t="n">
+        <v>220000</v>
+      </c>
+      <c r="C860" t="n">
+        <v>228000</v>
+      </c>
+      <c r="D860" t="n">
+        <v>218500</v>
+      </c>
+      <c r="E860" t="n">
+        <v>224000</v>
+      </c>
+      <c r="F860" t="n">
+        <v>204395</v>
+      </c>
+      <c r="G860" t="n">
+        <v>1.357466063348416</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B861" t="n">
+        <v>224500</v>
+      </c>
+      <c r="C861" t="n">
+        <v>226500</v>
+      </c>
+      <c r="D861" t="n">
+        <v>217000</v>
+      </c>
+      <c r="E861" t="n">
+        <v>217000</v>
+      </c>
+      <c r="F861" t="n">
+        <v>187961</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-3.125</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B862" t="n">
+        <v>218500</v>
+      </c>
+      <c r="C862" t="n">
+        <v>224500</v>
+      </c>
+      <c r="D862" t="n">
+        <v>216000</v>
+      </c>
+      <c r="E862" t="n">
+        <v>216500</v>
+      </c>
+      <c r="F862" t="n">
+        <v>109649</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-0.2304147465437788</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B863" t="n">
+        <v>213500</v>
+      </c>
+      <c r="C863" t="n">
+        <v>217000</v>
+      </c>
+      <c r="D863" t="n">
+        <v>207500</v>
+      </c>
+      <c r="E863" t="n">
+        <v>216500</v>
+      </c>
+      <c r="F863" t="n">
+        <v>206335</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B864" t="n">
+        <v>214500</v>
+      </c>
+      <c r="C864" t="n">
+        <v>220000</v>
+      </c>
+      <c r="D864" t="n">
+        <v>211500</v>
+      </c>
+      <c r="E864" t="n">
+        <v>213000</v>
+      </c>
+      <c r="F864" t="n">
+        <v>169941</v>
+      </c>
+      <c r="G864" t="n">
+        <v>-1.616628175519631</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B865" t="n">
+        <v>210500</v>
+      </c>
+      <c r="C865" t="n">
+        <v>215500</v>
+      </c>
+      <c r="D865" t="n">
+        <v>208000</v>
+      </c>
+      <c r="E865" t="n">
+        <v>214500</v>
+      </c>
+      <c r="F865" t="n">
+        <v>104498</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.7042253521126761</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B866" t="n">
+        <v>214500</v>
+      </c>
+      <c r="C866" t="n">
+        <v>223000</v>
+      </c>
+      <c r="D866" t="n">
+        <v>212000</v>
+      </c>
+      <c r="E866" t="n">
+        <v>223000</v>
+      </c>
+      <c r="F866" t="n">
+        <v>241597</v>
+      </c>
+      <c r="G866" t="n">
+        <v>3.962703962703963</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B867" t="n">
+        <v>220500</v>
+      </c>
+      <c r="C867" t="n">
+        <v>225000</v>
+      </c>
+      <c r="D867" t="n">
+        <v>219000</v>
+      </c>
+      <c r="E867" t="n">
+        <v>219000</v>
+      </c>
+      <c r="F867" t="n">
+        <v>168906</v>
+      </c>
+      <c r="G867" t="n">
+        <v>-1.79372197309417</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B868" t="n">
+        <v>220000</v>
+      </c>
+      <c r="C868" t="n">
+        <v>230500</v>
+      </c>
+      <c r="D868" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E868" t="n">
+        <v>228500</v>
+      </c>
+      <c r="F868" t="n">
+        <v>260678</v>
+      </c>
+      <c r="G868" t="n">
+        <v>4.337899543378995</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B869" t="n">
+        <v>227500</v>
+      </c>
+      <c r="C869" t="n">
+        <v>232000</v>
+      </c>
+      <c r="D869" t="n">
+        <v>221500</v>
+      </c>
+      <c r="E869" t="n">
+        <v>230500</v>
+      </c>
+      <c r="F869" t="n">
+        <v>234688</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0.87527352297593</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B870" t="n">
+        <v>233500</v>
+      </c>
+      <c r="C870" t="n">
+        <v>238500</v>
+      </c>
+      <c r="D870" t="n">
+        <v>206000</v>
+      </c>
+      <c r="E870" t="n">
+        <v>212500</v>
+      </c>
+      <c r="F870" t="n">
+        <v>1044009</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-7.809110629067245</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B871" t="n">
+        <v>209000</v>
+      </c>
+      <c r="C871" t="n">
+        <v>212500</v>
+      </c>
+      <c r="D871" t="n">
+        <v>202500</v>
+      </c>
+      <c r="E871" t="n">
+        <v>210000</v>
+      </c>
+      <c r="F871" t="n">
+        <v>1096822</v>
+      </c>
+      <c r="G871" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B872" t="n">
+        <v>210500</v>
+      </c>
+      <c r="C872" t="n">
+        <v>214500</v>
+      </c>
+      <c r="D872" t="n">
+        <v>209000</v>
+      </c>
+      <c r="E872" t="n">
+        <v>211000</v>
+      </c>
+      <c r="F872" t="n">
+        <v>584355</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B873" t="n">
+        <v>212500</v>
+      </c>
+      <c r="C873" t="n">
+        <v>217000</v>
+      </c>
+      <c r="D873" t="n">
+        <v>207000</v>
+      </c>
+      <c r="E873" t="n">
+        <v>212000</v>
+      </c>
+      <c r="F873" t="n">
+        <v>625138</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0.4739336492890995</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B874" t="n">
+        <v>206000</v>
+      </c>
+      <c r="C874" t="n">
+        <v>207500</v>
+      </c>
+      <c r="D874" t="n">
+        <v>199800</v>
+      </c>
+      <c r="E874" t="n">
+        <v>201500</v>
+      </c>
+      <c r="F874" t="n">
+        <v>1122644</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-4.952830188679245</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B875" t="n">
+        <v>201500</v>
+      </c>
+      <c r="C875" t="n">
+        <v>206500</v>
+      </c>
+      <c r="D875" t="n">
+        <v>201000</v>
+      </c>
+      <c r="E875" t="n">
+        <v>205000</v>
+      </c>
+      <c r="F875" t="n">
+        <v>502131</v>
+      </c>
+      <c r="G875" t="n">
+        <v>1.73697270471464</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B876" t="n">
+        <v>203500</v>
+      </c>
+      <c r="C876" t="n">
+        <v>205000</v>
+      </c>
+      <c r="D876" t="n">
+        <v>202000</v>
+      </c>
+      <c r="E876" t="n">
+        <v>202000</v>
+      </c>
+      <c r="F876" t="n">
+        <v>280426</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-1.463414634146342</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B877" t="n">
+        <v>202500</v>
+      </c>
+      <c r="C877" t="n">
+        <v>205500</v>
+      </c>
+      <c r="D877" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E877" t="n">
+        <v>200000</v>
+      </c>
+      <c r="F877" t="n">
+        <v>385603</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-0.9900990099009901</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B878" t="n">
+        <v>201500</v>
+      </c>
+      <c r="C878" t="n">
+        <v>205500</v>
+      </c>
+      <c r="D878" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E878" t="n">
+        <v>203500</v>
+      </c>
+      <c r="F878" t="n">
+        <v>360938</v>
+      </c>
+      <c r="G878" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B879" t="n">
+        <v>204000</v>
+      </c>
+      <c r="C879" t="n">
+        <v>204500</v>
+      </c>
+      <c r="D879" t="n">
+        <v>201000</v>
+      </c>
+      <c r="E879" t="n">
+        <v>204500</v>
+      </c>
+      <c r="F879" t="n">
+        <v>270690</v>
+      </c>
+      <c r="G879" t="n">
+        <v>0.4914004914004914</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B880" t="n">
+        <v>204500</v>
+      </c>
+      <c r="C880" t="n">
+        <v>205500</v>
+      </c>
+      <c r="D880" t="n">
+        <v>202500</v>
+      </c>
+      <c r="E880" t="n">
+        <v>203000</v>
+      </c>
+      <c r="F880" t="n">
+        <v>200974</v>
+      </c>
+      <c r="G880" t="n">
+        <v>-0.7334963325183375</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B881" t="n">
+        <v>202500</v>
+      </c>
+      <c r="C881" t="n">
+        <v>203000</v>
+      </c>
+      <c r="D881" t="n">
+        <v>199700</v>
+      </c>
+      <c r="E881" t="n">
+        <v>199900</v>
+      </c>
+      <c r="F881" t="n">
+        <v>300714</v>
+      </c>
+      <c r="G881" t="n">
+        <v>-1.527093596059113</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B882" t="n">
+        <v>199800</v>
+      </c>
+      <c r="C882" t="n">
+        <v>202500</v>
+      </c>
+      <c r="D882" t="n">
+        <v>196500</v>
+      </c>
+      <c r="E882" t="n">
+        <v>200500</v>
+      </c>
+      <c r="F882" t="n">
+        <v>1348983</v>
+      </c>
+      <c r="G882" t="n">
+        <v>0.3001500750375188</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B883" t="n">
+        <v>201000</v>
+      </c>
+      <c r="C883" t="n">
+        <v>201000</v>
+      </c>
+      <c r="D883" t="n">
+        <v>192000</v>
+      </c>
+      <c r="E883" t="n">
+        <v>192800</v>
+      </c>
+      <c r="F883" t="n">
+        <v>499201</v>
+      </c>
+      <c r="G883" t="n">
+        <v>-3.840399002493765</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B884" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C884" t="n">
+        <v>195600</v>
+      </c>
+      <c r="D884" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E884" t="n">
+        <v>193500</v>
+      </c>
+      <c r="F884" t="n">
+        <v>181446</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.3630705394190871</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B885" t="n">
+        <v>194200</v>
+      </c>
+      <c r="C885" t="n">
+        <v>197400</v>
+      </c>
+      <c r="D885" t="n">
+        <v>192700</v>
+      </c>
+      <c r="E885" t="n">
+        <v>194000</v>
+      </c>
+      <c r="F885" t="n">
+        <v>261386</v>
+      </c>
+      <c r="G885" t="n">
+        <v>0.2583979328165375</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B886" t="n">
+        <v>193500</v>
+      </c>
+      <c r="C886" t="n">
+        <v>196600</v>
+      </c>
+      <c r="D886" t="n">
+        <v>193200</v>
+      </c>
+      <c r="E886" t="n">
+        <v>193900</v>
+      </c>
+      <c r="F886" t="n">
+        <v>187827</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-0.05154639175257732</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B887" t="n">
+        <v>193800</v>
+      </c>
+      <c r="C887" t="n">
+        <v>193900</v>
+      </c>
+      <c r="D887" t="n">
+        <v>191000</v>
+      </c>
+      <c r="E887" t="n">
+        <v>191200</v>
+      </c>
+      <c r="F887" t="n">
+        <v>209543</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-1.392470345538938</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B888" t="n">
+        <v>190300</v>
+      </c>
+      <c r="C888" t="n">
+        <v>191200</v>
+      </c>
+      <c r="D888" t="n">
+        <v>187900</v>
+      </c>
+      <c r="E888" t="n">
+        <v>188000</v>
+      </c>
+      <c r="F888" t="n">
+        <v>261629</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-1.673640167364017</v>
       </c>
     </row>
   </sheetData>
